--- a/Flight_Application_Sanity_Test/Default.xlsx
+++ b/Flight_Application_Sanity_Test/Default.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
